--- a/files/morningstar/morningstar_pages/F000011VMM/HK/Performance.xlsx
+++ b/files/morningstar/morningstar_pages/F000011VMM/HK/Performance.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,282 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NAV / 1-Day Return</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18.36 / -0.54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>435.9 Mil</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Adj. Expense Ratio</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Expense Ratio</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fee Level</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Load</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EAA Fund Other Equity</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Investment Style</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Large Growth</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Minimum Initial Investment</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SEC Yield / TTM Yield</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>— / 0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Turnover</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1-Day</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-0.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1-Week</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-3.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1-Month</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-1.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3-Month</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>-1.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>YTD</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-0.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1-Year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3-Year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>5-Year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10-Year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>15-Year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Earliest Available</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
